--- a/biology/Zoologie/Apodidae/Apodidae.xlsx
+++ b/biology/Zoologie/Apodidae/Apodidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Apodidae (ou Apodidés en français) sont une famille d'oiseaux constituée de 19 genres et de 106 espèces existantes de martinets et de salanganes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des espèces d'oiseaux aux mœurs aériennes, certaines comptant parmi les animaux les plus rapides, de taille petite à moyenne (de 9 à 25 cm). Leurs ailes sont longues et étroites, et leurs courtes pattes (parfois garnies de plumes pour celles qui nichent dans les cavernes les plus froides et humides) portent des doigts puissants aux ongles acérés. Leur plumage est généralement gris-brun.
 Certaines espèces sont capables de voler dans les cavernes totalement noires en se repérant par écholocation. L'une d'entre elles, Aerodramus papuensis a été repérée volant de nuit à l'extérieur en utilisant son système d'écholocation.
@@ -543,7 +557,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosmopolites, ces oiseaux fréquentent une large variété d'habitats, rarement loin de l'eau (douce ou salée).
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Leur nom (apus = « sans pied ») leur vient du fait qu'ils ont des pattes très courtes.
-Liste des genres
-D'après Alan P. Peterson, cette famille est constituée de deux sous-familles. D'après la classification de référence (version 2.10, 2011) du Congrès ornithologique international, ces sous-familles sont constituées des genres suivants (ordre alphabétique) :
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur nom (apus = « sans pied ») leur vient du fait qu'ils ont des pattes très courtes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apodidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apodidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après Alan P. Peterson, cette famille est constituée de deux sous-familles. D'après la classification de référence (version 2.10, 2011) du Congrès ornithologique international, ces sous-familles sont constituées des genres suivants (ordre alphabétique) :
 sous-famille des Cypseloidinae (13 espèces)
 genre Cypseloides (8 espèces)
 genre Streptoprocne (5 espèces)
@@ -600,9 +656,43 @@
 genre Tachornis (3 espèces)
 genre Tachymarptis (2 espèces)
 genre Telacanthura (2 espèces)
-genre Zoonavena (3 espèces)
-Liste des espèces
-D'après la classification de référence (version 3.5, 2013) du Congrès ornithologique international (ordre phylogénique) :
+genre Zoonavena (3 espèces)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Apodidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apodidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 3.5, 2013) du Congrès ornithologique international (ordre phylogénique) :
 Espèces par ordre phylogénique
 Cypseloides cherriei – Martinet à points blancs
 Cypseloides cryptus – Martinet à menton blanc
